--- a/MyData.xlsx
+++ b/MyData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joao.correia\Documents\R\20220120 - Examplermarkdown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B22A34EC-91BD-4FF9-B982-B6E9E28631F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B35FDA-6CD9-43FA-B7AA-6E2B07DA0FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{139EA376-3CB7-434E-A382-2EC40EB62F4B}"/>
   </bookViews>
